--- a/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExpenseReport.xlsx
+++ b/MAUI/XlsIO/SampleBrowser.Maui.XlsIO/Resources/XlsIO/ExpenseReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohanChandran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hotfix\Alt\x88092-Change-SP-relese\Maui\SB\SampleBrowser.Maui.XlsIO\Resources\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE88C22-B0AF-48B4-9E08-2702535A0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4C5D3-C7A8-4E4B-83F3-005383F5FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,12 +199,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,6 +220,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1416050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1909233</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE47BE0-7043-8589-531D-3FD4300CB6E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5721350" y="603250"/>
+          <a:ext cx="2645833" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,23 +577,23 @@
   <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="30.77734375" customWidth="1"/>
+    <col min="1" max="4" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.6">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,7 +617,7 @@
         <v>41202</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +625,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -584,150 +639,150 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>100</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>145</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f>(B7*B10)</f>
         <v>70</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>(B7*C10)</f>
         <v>101.5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f>(B7*D10)</f>
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>15</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>45</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>9</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>13</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>9.5</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>7</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -751,6 +806,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -760,7 +816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -773,7 +829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
